--- a/biology/Zoologie/Adenosejus_krantzi/Adenosejus_krantzi.xlsx
+++ b/biology/Zoologie/Adenosejus_krantzi/Adenosejus_krantzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenosejus krantzi est une espèce d'acariens mesostigmates de la famille des Sejidae, la seule du genre Adenosejus.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Oregon et en Californie.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hirschmann, Wisniewski &amp; Kaczmarek 1991 : Gangsystematik der Parasitiformes. Teil 530. Weltweite Revision der Ganggattung Sejus C.L. Koch 1836 (Trichopygidiina). Neube schreibung von 26 Sejus Arten, Wiederbeschreibung der Typenart. Acarologie (Nuremberg), vol. 38, p. 136-214.
 Lekveishvili &amp; Krantz, 2004 : A new genus of the family Sejidae (Acari: Mesostigmata) based on Sejus krantzi and S. manualkrantzi Hirschmann, 1991. Systematic and Applied Acarology Special Publications, vol. 20, p. 1-4 (texte intégral).</t>
